--- a/StockProductos.xlsx
+++ b/StockProductos.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
-  <si>
-    <t>Producto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+  <si>
+    <t>Prenda</t>
   </si>
   <si>
     <t>Único</t>
@@ -1006,6 +1006,252 @@
   </si>
   <si>
     <t>Vaquero hombre liso azul</t>
+  </si>
+  <si>
+    <t>Tela</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengalina azul </t>
+  </si>
+  <si>
+    <t>Bengalina negra</t>
+  </si>
+  <si>
+    <t>Camiseria administración inv verde</t>
+  </si>
+  <si>
+    <t>Camiseria bca rosada</t>
+  </si>
+  <si>
+    <t>Camiseria blanca</t>
+  </si>
+  <si>
+    <t>Camiseria celeste</t>
+  </si>
+  <si>
+    <t>Camiseria gerentas verano 2016</t>
+  </si>
+  <si>
+    <t>Camiseria InstaRotier beige</t>
+  </si>
+  <si>
+    <t>Camiseria oxford</t>
+  </si>
+  <si>
+    <t>Camiseria rayada bca/azul</t>
+  </si>
+  <si>
+    <t>Camiseria rayada bca/bordo</t>
+  </si>
+  <si>
+    <t>Camiseria rayada bca/verde</t>
+  </si>
+  <si>
+    <t>Camiseria roja</t>
+  </si>
+  <si>
+    <t>Camisería vigilancia gris claro</t>
+  </si>
+  <si>
+    <t>Conglomerado</t>
+  </si>
+  <si>
+    <t>Entretela rayada</t>
+  </si>
+  <si>
+    <t>Forro aul francia</t>
+  </si>
+  <si>
+    <t>Forro azul</t>
+  </si>
+  <si>
+    <t>Forro blanco</t>
+  </si>
+  <si>
+    <t>Forro rojo</t>
+  </si>
+  <si>
+    <t>Forro verde</t>
+  </si>
+  <si>
+    <t>Fusionado negro</t>
+  </si>
+  <si>
+    <t>Fusuinado blanco</t>
+  </si>
+  <si>
+    <t>Gaardina trabajo azul francia</t>
+  </si>
+  <si>
+    <t>Gabardina america bordo</t>
+  </si>
+  <si>
+    <t>Gabardina americana azul</t>
+  </si>
+  <si>
+    <t>Gabardina americana gris</t>
+  </si>
+  <si>
+    <t>Gabardina americana negra</t>
+  </si>
+  <si>
+    <t>Gabardina americana verde</t>
+  </si>
+  <si>
+    <t>Gabardina de trabajo blanca</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo amarilla</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo beige</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo bordo</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo gris</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo naranja</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo negra</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo roja</t>
+  </si>
+  <si>
+    <t>Gabardina trabajo verde</t>
+  </si>
+  <si>
+    <t>Gabardina trabajoazul</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Koshibo</t>
+  </si>
+  <si>
+    <t>Panamá azul</t>
+  </si>
+  <si>
+    <t>Panamá listrado azul</t>
+  </si>
+  <si>
+    <t>Panamá listrado negro</t>
+  </si>
+  <si>
+    <t>Pantalón adm viejo</t>
+  </si>
+  <si>
+    <t>Piquet  verde</t>
+  </si>
+  <si>
+    <t>Piquet azul</t>
+  </si>
+  <si>
+    <t>Piquet bordó</t>
+  </si>
+  <si>
+    <t>Piquet negra</t>
+  </si>
+  <si>
+    <t>Polar azul</t>
+  </si>
+  <si>
+    <t>Polar rojo</t>
+  </si>
+  <si>
+    <t>Polar violeta</t>
+  </si>
+  <si>
+    <t>Popelina azul</t>
+  </si>
+  <si>
+    <t>Popelina turquesa</t>
+  </si>
+  <si>
+    <t>Puño negro</t>
+  </si>
+  <si>
+    <t>Puño verde</t>
+  </si>
+  <si>
+    <t>Rayado bco/azul</t>
+  </si>
+  <si>
+    <t>Tela blazer adm inv 2016</t>
+  </si>
+  <si>
+    <t>Tela blazer gerenta inv 2016</t>
+  </si>
+  <si>
+    <t>Tela bonding azul</t>
+  </si>
+  <si>
+    <t>Tela camiseria gris oscura</t>
+  </si>
+  <si>
+    <t>Tela gerentas invierno vieja</t>
+  </si>
+  <si>
+    <t>Tela gerentas verano 2016</t>
+  </si>
+  <si>
+    <t>Tela gerentas verano vieja</t>
+  </si>
+  <si>
+    <t>Tela jefas cuadros claro</t>
+  </si>
+  <si>
+    <t>Tela jefas cuadros oscura</t>
+  </si>
+  <si>
+    <t>Tela pantalón havanna</t>
+  </si>
+  <si>
+    <t>Tela pantalón jefas claro</t>
+  </si>
+  <si>
+    <t>Tela pantalón jefas oscuro</t>
+  </si>
+  <si>
+    <t>Tela remera adm beige</t>
+  </si>
+  <si>
+    <t>Tela remeras algodón azul</t>
+  </si>
+  <si>
+    <t>Tela remeras havanna</t>
+  </si>
+  <si>
+    <t>Tela tapicería</t>
+  </si>
+  <si>
+    <t>Telas fantasía varias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricolina </t>
+  </si>
+  <si>
+    <t>Tricolina triple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunil </t>
+  </si>
+  <si>
+    <t>Tunil rojo</t>
+  </si>
+  <si>
+    <t>Tunil verde quirurgico</t>
+  </si>
+  <si>
+    <t>Watta</t>
   </si>
 </sst>
 </file>
@@ -1357,21 +1603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
@@ -7386,4 +7620,677 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B32" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B33" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B47" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B55" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B62" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B70" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B79" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StockProductos.xlsx
+++ b/StockProductos.xlsx
@@ -4913,7 +4913,7 @@
         <v>194</v>
       </c>
       <c r="B180" s="1">
-        <v>32</v>
+        <v>-9968</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
